--- a/materials/radiosonde.xlsx
+++ b/materials/radiosonde.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\texts\tech_math\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Documents\texts\tech_math\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39CC311E-0EAD-453B-A85C-2449870AD360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0A32A-0ED2-4C33-9C80-412451D15CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="855" windowWidth="21060" windowHeight="14175"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="radiosonde_text" sheetId="1" r:id="rId1"/>
+    <sheet name="radiosonde_240923" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Height</t>
   </si>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4009,6 +4010,3434 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Dewpoint</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>radiosonde_240923!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>radiosonde_240923!$C$2:$C$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-12.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-12.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-20.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-21.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-22.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-23.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-23.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-24.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-25.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-26.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-27.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-27.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-33.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-34.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-37.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-37.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-40.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-41.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-43.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-46.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-49.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-50.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-50.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-50.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-51.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-51.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-51.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-52.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-53.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-53.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-54.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-52.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-52.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-51.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-51.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-49.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-49.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-47.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-43.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-43.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-43.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-44.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-44.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-44.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-44.1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-44.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-45.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-45.9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-45.8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-45.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-45.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-44.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-44.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-44.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-45.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-45.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-46.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-45.7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-46.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-46.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-45.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-45.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-46.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-47.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-46.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-46.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-46.9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-47.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-48.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-48.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-48.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-47.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-47.8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-48.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-48.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-49.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-49.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-49.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-49.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-50.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-51.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-51.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-49.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-49.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-50.1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-47.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-47.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-48.1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-48.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-47.3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-48.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-46.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>radiosonde_240923!$A$2:$A$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B267-4A92-885B-1C424BC1AA0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>radiosonde_240923!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dew Point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>radiosonde_240923!$D$2:$D$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-16.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-17.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-19.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-19.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-19.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-22.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-22.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-25.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-25.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-26.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-28.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-30.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-30.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-32.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-36.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-39.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-41.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-41.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-45.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-46.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-48.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-48.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-49.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-49.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-52.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-52.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-53.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-55.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-56.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-55.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-55.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-54.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-55.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-56.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-55.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-55.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-55.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-56.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-60.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-61.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-65.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-65.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-74.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-74.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-75.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-76.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-76.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-76.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-77.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-77.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-78.2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-79.7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-79.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-79.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-79.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-80.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-80.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-80.7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-81.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-81.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-81.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-81.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-80.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-80.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-81.2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-81.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-81.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-81.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-81.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-82.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-82.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-82.4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-82.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-82.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-82.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-83</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-83.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-83.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-83.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-83.1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-83.1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-83.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-84.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-84.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-84.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-83.7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-83.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-83.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-84.1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-83.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-82.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-83.1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-83.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-83.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-83.3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-83.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-82.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>radiosonde_240923!$A$2:$A$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B267-4A92-885B-1C424BC1AA0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1725140447"/>
+        <c:axId val="1725140863"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>radiosonde_240923!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Height</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>radiosonde_240923!$A$2:$A$165</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="164"/>
+                      <c:pt idx="0">
+                        <c:v>974</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>971</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>969</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>935</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>925</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>923</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>920</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>888</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>881</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>864</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>850</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>837</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>832</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>792</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>770</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>755</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>744</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>738</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>736</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>719</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>698</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>690</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>676</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>657</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>652</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>645</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>642</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>631</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>627</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>621</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>615</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>609</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>604</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>594</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>593</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>565</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>551</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>546</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>531</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>520</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>515</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>511</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>486</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>475</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>468</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>457</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>448</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>443</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>442</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>412</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>410</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>406</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>377</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>366</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>364</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>361</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>353</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>345</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>318</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>312</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>306</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>298</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>295</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>293</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>286</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>279</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>278</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>274</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>273</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>266</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>265</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>247</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>231</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>221</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>218</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>215</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>206</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>188</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>98.9</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>94.7</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>84.2</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>81.3</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>79.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>74.099999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>65.3</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>61.6</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>43.6</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>40.5</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>31.2</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>28.8</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>26.3</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>16.3</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>15.4</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>12.9</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>12.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>radiosonde_240923!$B$2:$B$165</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="164"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>527</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>817</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>882</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1040</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1173</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1298</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1346</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1739</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1964</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2121</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2237</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2301</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2322</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2507</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2718</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2740</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2831</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2991</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>3214</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3273</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3357</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3393</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3526</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3575</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>3649</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3724</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3799</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3862</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>3990</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4003</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4558</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>4627</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>4834</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4990</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5062</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>5119</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>5280</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>5488</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>5548</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>5654</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>5762</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>5934</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>6077</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>6158</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>6174</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>6673</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>6707</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>6741</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>6776</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>6863</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>6880</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>7236</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>7291</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>7495</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>7532</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>7589</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>7740</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>7896</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>8193</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>8439</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>8522</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>8564</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>8691</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>8734</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>8820</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>8863</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>8907</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>8929</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>8973</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>9128</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>9264</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>9287</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9310</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>9403</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>9427</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>9594</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>9618</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>9743</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>10053</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>10079</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>10297</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>10523</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>10820</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>10912</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>11005</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>11227</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>11292</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>11325</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>11490</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>11905</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>12013</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>12862</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>13420</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>14023</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>14121</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>14271</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>14528</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>14906</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>15425</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>15669</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>15859</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>16120</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>16194</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>16483</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>17265</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>17360</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>17498</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>17654</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>17944</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>18111</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>18211</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>18395</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>18490</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>18781</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>18951</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>19084</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>19338</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>19852</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>19969</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>20210</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>20460</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>20720</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>21128</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>21270</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>21415</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>21563</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>21623</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>21714</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>21870</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>22029</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>22109</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>22358</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>22529</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>22704</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>23070</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>23260</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>23456</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>23823</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>23865</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>24080</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>24300</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>24345</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>24528</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>24764</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>24935</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>25010</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>25136</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>25533</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>26103</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>26409</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>26730</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>28074</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>28197</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>28448</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>29616</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>30039</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B267-4A92-885B-1C424BC1AA0F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1725140447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725140863"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1725140863"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1725140447"/>
+        <c:crossesAt val="-100"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4049,7 +7478,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4606,10 +8591,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8287031-695F-44C1-9213-CB387B43E2B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4647,7 +8675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4753,7 +8781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4895,23 +8923,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4931,7 +8959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1003</v>
       </c>
@@ -4951,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -4971,7 +8999,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>996</v>
       </c>
@@ -4991,7 +9019,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>995</v>
       </c>
@@ -5011,7 +9039,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>991</v>
       </c>
@@ -5031,7 +9059,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>977</v>
       </c>
@@ -5051,7 +9079,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>966</v>
       </c>
@@ -5071,7 +9099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>964</v>
       </c>
@@ -5091,7 +9119,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>936</v>
       </c>
@@ -5111,7 +9139,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>925</v>
       </c>
@@ -5131,7 +9159,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>893</v>
       </c>
@@ -5151,7 +9179,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>857</v>
       </c>
@@ -5171,7 +9199,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>850</v>
       </c>
@@ -5191,7 +9219,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>832</v>
       </c>
@@ -5211,7 +9239,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>807</v>
       </c>
@@ -5231,7 +9259,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>798</v>
       </c>
@@ -5251,7 +9279,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>791</v>
       </c>
@@ -5271,7 +9299,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>781</v>
       </c>
@@ -5291,7 +9319,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>775</v>
       </c>
@@ -5311,7 +9339,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>764</v>
       </c>
@@ -5331,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>754</v>
       </c>
@@ -5351,7 +9379,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>747</v>
       </c>
@@ -5371,7 +9399,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>721</v>
       </c>
@@ -5391,7 +9419,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>700</v>
       </c>
@@ -5411,7 +9439,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>694</v>
       </c>
@@ -5431,7 +9459,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>692</v>
       </c>
@@ -5451,7 +9479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>663</v>
       </c>
@@ -5471,7 +9499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>662</v>
       </c>
@@ -5491,7 +9519,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>656</v>
       </c>
@@ -5511,7 +9539,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>641</v>
       </c>
@@ -5531,7 +9559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>636</v>
       </c>
@@ -5551,7 +9579,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>633</v>
       </c>
@@ -5571,7 +9599,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>628</v>
       </c>
@@ -5591,7 +9619,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>617</v>
       </c>
@@ -5611,7 +9639,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>615</v>
       </c>
@@ -5631,7 +9659,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>603</v>
       </c>
@@ -5651,7 +9679,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>583</v>
       </c>
@@ -5671,7 +9699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>578</v>
       </c>
@@ -5691,7 +9719,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>555</v>
       </c>
@@ -5711,7 +9739,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>546</v>
       </c>
@@ -5731,7 +9759,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>539</v>
       </c>
@@ -5751,7 +9779,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>533</v>
       </c>
@@ -5771,7 +9799,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>510</v>
       </c>
@@ -5791,7 +9819,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>500</v>
       </c>
@@ -5811,7 +9839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>476</v>
       </c>
@@ -5831,7 +9859,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>473</v>
       </c>
@@ -5851,7 +9879,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>450</v>
       </c>
@@ -5871,7 +9899,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>428</v>
       </c>
@@ -5891,7 +9919,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>415</v>
       </c>
@@ -5911,7 +9939,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>405</v>
       </c>
@@ -5931,7 +9959,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>400</v>
       </c>
@@ -5951,7 +9979,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>399</v>
       </c>
@@ -5971,7 +9999,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>391</v>
       </c>
@@ -5991,7 +10019,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>369</v>
       </c>
@@ -6011,7 +10039,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>341</v>
       </c>
@@ -6031,7 +10059,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>340</v>
       </c>
@@ -6051,7 +10079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>309</v>
       </c>
@@ -6071,7 +10099,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>302</v>
       </c>
@@ -6091,7 +10119,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>300</v>
       </c>
@@ -6111,7 +10139,7 @@
         <v>49.01</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>299</v>
       </c>
@@ -6131,7 +10159,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>274</v>
       </c>
@@ -6151,7 +10179,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>272</v>
       </c>
@@ -6171,7 +10199,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>269</v>
       </c>
@@ -6191,7 +10219,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>250</v>
       </c>
@@ -6211,7 +10239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>249</v>
       </c>
@@ -6231,7 +10259,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>245</v>
       </c>
@@ -6251,7 +10279,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>243</v>
       </c>
@@ -6271,7 +10299,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>238</v>
       </c>
@@ -6291,7 +10319,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>231</v>
       </c>
@@ -6311,7 +10339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>229</v>
       </c>
@@ -6331,7 +10359,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>225</v>
       </c>
@@ -6351,7 +10379,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>223</v>
       </c>
@@ -6371,7 +10399,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>212</v>
       </c>
@@ -6391,7 +10419,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>200</v>
       </c>
@@ -6411,7 +10439,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>195</v>
       </c>
@@ -6431,7 +10459,7 @@
         <v>41.01</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>189</v>
       </c>
@@ -6451,7 +10479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>181</v>
       </c>
@@ -6471,7 +10499,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>176</v>
       </c>
@@ -6491,7 +10519,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>168</v>
       </c>
@@ -6511,7 +10539,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>167</v>
       </c>
@@ -6531,7 +10559,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>159</v>
       </c>
@@ -6551,7 +10579,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>154</v>
       </c>
@@ -6571,7 +10599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>152</v>
       </c>
@@ -6591,7 +10619,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>150</v>
       </c>
@@ -6611,7 +10639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>149</v>
       </c>
@@ -6631,7 +10659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>146</v>
       </c>
@@ -6651,7 +10679,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>145</v>
       </c>
@@ -6671,7 +10699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>138</v>
       </c>
@@ -6691,7 +10719,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>133</v>
       </c>
@@ -6711,7 +10739,7 @@
         <v>8.99</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>132</v>
       </c>
@@ -6731,7 +10759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>128</v>
       </c>
@@ -6751,7 +10779,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>127</v>
       </c>
@@ -6771,7 +10799,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>124</v>
       </c>
@@ -6791,7 +10819,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>123</v>
       </c>
@@ -6811,7 +10839,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>122</v>
       </c>
@@ -6831,7 +10859,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>121</v>
       </c>
@@ -6851,7 +10879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>120</v>
       </c>
@@ -6871,7 +10899,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>116</v>
       </c>
@@ -6891,7 +10919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>113</v>
       </c>
@@ -6911,7 +10939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>103</v>
       </c>
@@ -6931,7 +10959,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6951,7 +10979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>96</v>
       </c>
@@ -6971,7 +10999,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>91</v>
       </c>
@@ -6991,7 +11019,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>90</v>
       </c>
@@ -7011,7 +11039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>86</v>
       </c>
@@ -7031,7 +11059,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>81.3</v>
       </c>
@@ -7051,7 +11079,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>78</v>
       </c>
@@ -7071,7 +11099,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>72.900000000000006</v>
       </c>
@@ -7091,7 +11119,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>71</v>
       </c>
@@ -7111,7 +11139,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>70</v>
       </c>
@@ -7131,7 +11159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>66</v>
       </c>
@@ -7151,7 +11179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>63</v>
       </c>
@@ -7171,7 +11199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>61</v>
       </c>
@@ -7191,7 +11219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>60.1</v>
       </c>
@@ -7211,7 +11239,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>59</v>
       </c>
@@ -7231,7 +11259,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>56</v>
       </c>
@@ -7251,7 +11279,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>55</v>
       </c>
@@ -7271,7 +11299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>52</v>
       </c>
@@ -7291,7 +11319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>50</v>
       </c>
@@ -7311,7 +11339,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>49</v>
       </c>
@@ -7331,7 +11359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>48</v>
       </c>
@@ -7351,7 +11379,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>47.2</v>
       </c>
@@ -7371,7 +11399,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>46</v>
       </c>
@@ -7391,7 +11419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>44</v>
       </c>
@@ -7411,7 +11439,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>41</v>
       </c>
@@ -7431,7 +11459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>40.799999999999997</v>
       </c>
@@ -7451,7 +11479,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>40</v>
       </c>
@@ -7471,7 +11499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>38.5</v>
       </c>
@@ -7491,7 +11519,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>35.4</v>
       </c>
@@ -7511,7 +11539,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>34</v>
       </c>
@@ -7531,7 +11559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>33.5</v>
       </c>
@@ -7551,7 +11579,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>33</v>
       </c>
@@ -7571,7 +11599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>30.8</v>
       </c>
@@ -7591,7 +11619,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>30</v>
       </c>
@@ -7611,7 +11639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>27.8</v>
       </c>
@@ -7631,7 +11659,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>27</v>
       </c>
@@ -7651,7 +11679,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>25</v>
       </c>
@@ -7671,7 +11699,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>24</v>
       </c>
@@ -7691,7 +11719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>23</v>
       </c>
@@ -7711,7 +11739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>22</v>
       </c>
@@ -7731,7 +11759,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>20</v>
       </c>
@@ -7751,7 +11779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>19.7</v>
       </c>
@@ -7771,7 +11799,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>19</v>
       </c>
@@ -7791,7 +11819,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>18</v>
       </c>
@@ -7811,7 +11839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>17.8</v>
       </c>
@@ -7831,7 +11859,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>16</v>
       </c>
@@ -7851,7 +11879,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>15</v>
       </c>
@@ -7871,7 +11899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>14</v>
       </c>
@@ -7891,7 +11919,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>13.5</v>
       </c>
@@ -7911,7 +11939,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>13</v>
       </c>
@@ -7931,7 +11959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>12</v>
       </c>
@@ -7951,7 +11979,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>11.8</v>
       </c>
@@ -7971,7 +11999,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>11.3</v>
       </c>
@@ -7991,7 +12019,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>11</v>
       </c>
@@ -8011,7 +12039,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>10</v>
       </c>
@@ -8031,7 +12059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>9.3000000000000007</v>
       </c>
@@ -8051,7 +12079,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>9</v>
       </c>
@@ -8071,7 +12099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>8.9</v>
       </c>
@@ -8091,7 +12119,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>8.1</v>
       </c>
@@ -8111,7 +12139,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>8</v>
       </c>
@@ -8131,7 +12159,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>7.6</v>
       </c>
@@ -8151,7 +12179,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>7</v>
       </c>
@@ -8171,7 +12199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>6.9</v>
       </c>
@@ -8191,7 +12219,7 @@
         <v>-9999</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>6.6</v>
       </c>
@@ -8209,6 +12237,3650 @@
       </c>
       <c r="F165">
         <v>-9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB026698-4772-46DE-8A49-1CC3D66B1766}">
+  <dimension ref="A1:F182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>974</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>7.8</v>
+      </c>
+      <c r="D2">
+        <v>2.9</v>
+      </c>
+      <c r="E2">
+        <v>315</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>971</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>969</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>8.6</v>
+      </c>
+      <c r="D4">
+        <v>1.6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>935</v>
+      </c>
+      <c r="B5">
+        <v>390</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>925</v>
+      </c>
+      <c r="B6">
+        <v>482</v>
+      </c>
+      <c r="C6">
+        <v>7.4</v>
+      </c>
+      <c r="D6">
+        <v>-1.6</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>923</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>7.4</v>
+      </c>
+      <c r="D7">
+        <v>-1.6</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>920</v>
+      </c>
+      <c r="B8">
+        <v>527</v>
+      </c>
+      <c r="C8">
+        <v>7.3</v>
+      </c>
+      <c r="D8">
+        <v>-1.7</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>888</v>
+      </c>
+      <c r="B9">
+        <v>817</v>
+      </c>
+      <c r="C9">
+        <v>5.8</v>
+      </c>
+      <c r="D9">
+        <v>-3.2</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>881</v>
+      </c>
+      <c r="B10">
+        <v>882</v>
+      </c>
+      <c r="C10">
+        <v>5.4</v>
+      </c>
+      <c r="D10">
+        <v>-1.6</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>864</v>
+      </c>
+      <c r="B11">
+        <v>1040</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>-1.9</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>850</v>
+      </c>
+      <c r="B12">
+        <v>1173</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+      <c r="D12">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>837</v>
+      </c>
+      <c r="B13">
+        <v>1298</v>
+      </c>
+      <c r="C13">
+        <v>1.8</v>
+      </c>
+      <c r="D13">
+        <v>-2.6</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>832</v>
+      </c>
+      <c r="B14">
+        <v>1346</v>
+      </c>
+      <c r="C14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D14">
+        <v>-2.8</v>
+      </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>792</v>
+      </c>
+      <c r="B15">
+        <v>1739</v>
+      </c>
+      <c r="C15">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>-3.7</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>770</v>
+      </c>
+      <c r="B16">
+        <v>1964</v>
+      </c>
+      <c r="C16">
+        <v>-3</v>
+      </c>
+      <c r="D16">
+        <v>-4.2</v>
+      </c>
+      <c r="E16">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>755</v>
+      </c>
+      <c r="B17">
+        <v>2121</v>
+      </c>
+      <c r="C17">
+        <v>-4.3</v>
+      </c>
+      <c r="D17">
+        <v>-4.5</v>
+      </c>
+      <c r="E17">
+        <v>122</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>744</v>
+      </c>
+      <c r="B18">
+        <v>2237</v>
+      </c>
+      <c r="C18">
+        <v>-4.7</v>
+      </c>
+      <c r="D18">
+        <v>-5.8</v>
+      </c>
+      <c r="E18">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>738</v>
+      </c>
+      <c r="B19">
+        <v>2301</v>
+      </c>
+      <c r="C19">
+        <v>-4.8</v>
+      </c>
+      <c r="D19">
+        <v>-6.2</v>
+      </c>
+      <c r="E19">
+        <v>130</v>
+      </c>
+      <c r="F19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>736</v>
+      </c>
+      <c r="B20">
+        <v>2322</v>
+      </c>
+      <c r="C20">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="D20">
+        <v>-6.4</v>
+      </c>
+      <c r="E20">
+        <v>131</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>719</v>
+      </c>
+      <c r="B21">
+        <v>2507</v>
+      </c>
+      <c r="C21">
+        <v>-3.5</v>
+      </c>
+      <c r="D21">
+        <v>-6</v>
+      </c>
+      <c r="E21">
+        <v>137</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>700</v>
+      </c>
+      <c r="B22">
+        <v>2718</v>
+      </c>
+      <c r="C22">
+        <v>-4.7</v>
+      </c>
+      <c r="D22">
+        <v>-6.4</v>
+      </c>
+      <c r="E22">
+        <v>145</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>698</v>
+      </c>
+      <c r="B23">
+        <v>2740</v>
+      </c>
+      <c r="C23">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>-6.5</v>
+      </c>
+      <c r="E23">
+        <v>145</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>690</v>
+      </c>
+      <c r="B24">
+        <v>2831</v>
+      </c>
+      <c r="C24">
+        <v>-5.6</v>
+      </c>
+      <c r="D24">
+        <v>-7</v>
+      </c>
+      <c r="E24">
+        <v>135</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>676</v>
+      </c>
+      <c r="B25">
+        <v>2991</v>
+      </c>
+      <c r="C25">
+        <v>-6.9</v>
+      </c>
+      <c r="D25">
+        <v>-7.9</v>
+      </c>
+      <c r="E25">
+        <v>105</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>657</v>
+      </c>
+      <c r="B26">
+        <v>3214</v>
+      </c>
+      <c r="C26">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="D26">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>652</v>
+      </c>
+      <c r="B27">
+        <v>3273</v>
+      </c>
+      <c r="C27">
+        <v>-8.9</v>
+      </c>
+      <c r="D27">
+        <v>-10.1</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>645</v>
+      </c>
+      <c r="B28">
+        <v>3357</v>
+      </c>
+      <c r="C28">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="D28">
+        <v>-11.3</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>642</v>
+      </c>
+      <c r="B29">
+        <v>3393</v>
+      </c>
+      <c r="C29">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="D29">
+        <v>-11.7</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>631</v>
+      </c>
+      <c r="B30">
+        <v>3526</v>
+      </c>
+      <c r="C30">
+        <v>-10.9</v>
+      </c>
+      <c r="D30">
+        <v>-12.4</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>627</v>
+      </c>
+      <c r="B31">
+        <v>3575</v>
+      </c>
+      <c r="C31">
+        <v>-11.1</v>
+      </c>
+      <c r="D31">
+        <v>-12.8</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>621</v>
+      </c>
+      <c r="B32">
+        <v>3649</v>
+      </c>
+      <c r="C32">
+        <v>-11.3</v>
+      </c>
+      <c r="D32">
+        <v>-13.5</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>615</v>
+      </c>
+      <c r="B33">
+        <v>3724</v>
+      </c>
+      <c r="C33">
+        <v>-11.3</v>
+      </c>
+      <c r="D33">
+        <v>-16.3</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>609</v>
+      </c>
+      <c r="B34">
+        <v>3799</v>
+      </c>
+      <c r="C34">
+        <v>-11.9</v>
+      </c>
+      <c r="D34">
+        <v>-15.4</v>
+      </c>
+      <c r="E34">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>604</v>
+      </c>
+      <c r="B35">
+        <v>3862</v>
+      </c>
+      <c r="C35">
+        <v>-12.1</v>
+      </c>
+      <c r="D35">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="E35">
+        <v>51</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>594</v>
+      </c>
+      <c r="B36">
+        <v>3990</v>
+      </c>
+      <c r="C36">
+        <v>-12.8</v>
+      </c>
+      <c r="D36">
+        <v>-17.3</v>
+      </c>
+      <c r="E36">
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>593</v>
+      </c>
+      <c r="B37">
+        <v>4003</v>
+      </c>
+      <c r="C37">
+        <v>-12.9</v>
+      </c>
+      <c r="D37">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="E37">
+        <v>65</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>565</v>
+      </c>
+      <c r="B38">
+        <v>4370</v>
+      </c>
+      <c r="C38">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D38">
+        <v>-19.3</v>
+      </c>
+      <c r="E38">
+        <v>78</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>551</v>
+      </c>
+      <c r="B39">
+        <v>4558</v>
+      </c>
+      <c r="C39">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="D39">
+        <v>-19.3</v>
+      </c>
+      <c r="E39">
+        <v>85</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>546</v>
+      </c>
+      <c r="B40">
+        <v>4627</v>
+      </c>
+      <c r="C40">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="D40">
+        <v>-19.3</v>
+      </c>
+      <c r="E40">
+        <v>94</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>531</v>
+      </c>
+      <c r="B41">
+        <v>4834</v>
+      </c>
+      <c r="C41">
+        <v>-19.2</v>
+      </c>
+      <c r="D41">
+        <v>-20.8</v>
+      </c>
+      <c r="E41">
+        <v>120</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>520</v>
+      </c>
+      <c r="B42">
+        <v>4990</v>
+      </c>
+      <c r="C42">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="D42">
+        <v>-22</v>
+      </c>
+      <c r="E42">
+        <v>117</v>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>515</v>
+      </c>
+      <c r="B43">
+        <v>5062</v>
+      </c>
+      <c r="C43">
+        <v>-20.6</v>
+      </c>
+      <c r="D43">
+        <v>-22.6</v>
+      </c>
+      <c r="E43">
+        <v>115</v>
+      </c>
+      <c r="F43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>511</v>
+      </c>
+      <c r="B44">
+        <v>5119</v>
+      </c>
+      <c r="C44">
+        <v>-21.1</v>
+      </c>
+      <c r="D44">
+        <v>-23</v>
+      </c>
+      <c r="E44">
+        <v>118</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>5280</v>
+      </c>
+      <c r="C45">
+        <v>-22.1</v>
+      </c>
+      <c r="D45">
+        <v>-22.5</v>
+      </c>
+      <c r="E45">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>486</v>
+      </c>
+      <c r="B46">
+        <v>5488</v>
+      </c>
+      <c r="C46">
+        <v>-23.5</v>
+      </c>
+      <c r="D46">
+        <v>-25.1</v>
+      </c>
+      <c r="E46">
+        <v>135</v>
+      </c>
+      <c r="F46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>482</v>
+      </c>
+      <c r="B47">
+        <v>5548</v>
+      </c>
+      <c r="C47">
+        <v>-23.9</v>
+      </c>
+      <c r="D47">
+        <v>-25.9</v>
+      </c>
+      <c r="E47">
+        <v>137</v>
+      </c>
+      <c r="F47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>475</v>
+      </c>
+      <c r="B48">
+        <v>5654</v>
+      </c>
+      <c r="C48">
+        <v>-24.7</v>
+      </c>
+      <c r="D48">
+        <v>-26.5</v>
+      </c>
+      <c r="E48">
+        <v>141</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>468</v>
+      </c>
+      <c r="B49">
+        <v>5762</v>
+      </c>
+      <c r="C49">
+        <v>-25.3</v>
+      </c>
+      <c r="D49">
+        <v>-28.1</v>
+      </c>
+      <c r="E49">
+        <v>145</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>457</v>
+      </c>
+      <c r="B50">
+        <v>5934</v>
+      </c>
+      <c r="C50">
+        <v>-26.3</v>
+      </c>
+      <c r="D50">
+        <v>-30.6</v>
+      </c>
+      <c r="E50">
+        <v>137</v>
+      </c>
+      <c r="F50">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>448</v>
+      </c>
+      <c r="B51">
+        <v>6077</v>
+      </c>
+      <c r="C51">
+        <v>-27.5</v>
+      </c>
+      <c r="D51">
+        <v>-30.7</v>
+      </c>
+      <c r="E51">
+        <v>130</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>443</v>
+      </c>
+      <c r="B52">
+        <v>6158</v>
+      </c>
+      <c r="C52">
+        <v>-27.9</v>
+      </c>
+      <c r="D52">
+        <v>-32.4</v>
+      </c>
+      <c r="E52">
+        <v>126</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>442</v>
+      </c>
+      <c r="B53">
+        <v>6174</v>
+      </c>
+      <c r="C53">
+        <v>-27.9</v>
+      </c>
+      <c r="D53">
+        <v>-32.9</v>
+      </c>
+      <c r="E53">
+        <v>125</v>
+      </c>
+      <c r="F53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>412</v>
+      </c>
+      <c r="B54">
+        <v>6673</v>
+      </c>
+      <c r="C54">
+        <v>-32.4</v>
+      </c>
+      <c r="D54">
+        <v>-36.1</v>
+      </c>
+      <c r="E54">
+        <v>135</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>410</v>
+      </c>
+      <c r="B55">
+        <v>6707</v>
+      </c>
+      <c r="C55">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="D55">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="E55">
+        <v>136</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>408</v>
+      </c>
+      <c r="B56">
+        <v>6741</v>
+      </c>
+      <c r="C56">
+        <v>-33.1</v>
+      </c>
+      <c r="D56">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="E56">
+        <v>137</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>406</v>
+      </c>
+      <c r="B57">
+        <v>6776</v>
+      </c>
+      <c r="C57">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="D57">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="E57">
+        <v>137</v>
+      </c>
+      <c r="F57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>401</v>
+      </c>
+      <c r="B58">
+        <v>6863</v>
+      </c>
+      <c r="C58">
+        <v>-34.1</v>
+      </c>
+      <c r="D58">
+        <v>-39.1</v>
+      </c>
+      <c r="E58">
+        <v>140</v>
+      </c>
+      <c r="F58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>400</v>
+      </c>
+      <c r="B59">
+        <v>6880</v>
+      </c>
+      <c r="C59">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="D59">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="E59">
+        <v>140</v>
+      </c>
+      <c r="F59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>380</v>
+      </c>
+      <c r="B60">
+        <v>7236</v>
+      </c>
+      <c r="C60">
+        <v>-37.4</v>
+      </c>
+      <c r="D60">
+        <v>-41.5</v>
+      </c>
+      <c r="E60">
+        <v>145</v>
+      </c>
+      <c r="F60">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>377</v>
+      </c>
+      <c r="B61">
+        <v>7291</v>
+      </c>
+      <c r="C61">
+        <v>-37.9</v>
+      </c>
+      <c r="D61">
+        <v>-41.9</v>
+      </c>
+      <c r="E61">
+        <v>149</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>366</v>
+      </c>
+      <c r="B62">
+        <v>7495</v>
+      </c>
+      <c r="C62">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="D62">
+        <v>-45.7</v>
+      </c>
+      <c r="E62">
+        <v>165</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>364</v>
+      </c>
+      <c r="B63">
+        <v>7532</v>
+      </c>
+      <c r="C63">
+        <v>-40.1</v>
+      </c>
+      <c r="D63">
+        <v>-46.1</v>
+      </c>
+      <c r="E63">
+        <v>168</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>361</v>
+      </c>
+      <c r="B64">
+        <v>7589</v>
+      </c>
+      <c r="C64">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="D64">
+        <v>-48.3</v>
+      </c>
+      <c r="E64">
+        <v>173</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>353</v>
+      </c>
+      <c r="B65">
+        <v>7740</v>
+      </c>
+      <c r="C65">
+        <v>-41.8</v>
+      </c>
+      <c r="D65">
+        <v>-48.8</v>
+      </c>
+      <c r="E65">
+        <v>185</v>
+      </c>
+      <c r="F65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>345</v>
+      </c>
+      <c r="B66">
+        <v>7896</v>
+      </c>
+      <c r="C66">
+        <v>-43.3</v>
+      </c>
+      <c r="D66">
+        <v>-49.3</v>
+      </c>
+      <c r="E66">
+        <v>183</v>
+      </c>
+      <c r="F66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>330</v>
+      </c>
+      <c r="B67">
+        <v>8193</v>
+      </c>
+      <c r="C67">
+        <v>-46.1</v>
+      </c>
+      <c r="D67">
+        <v>-49.4</v>
+      </c>
+      <c r="E67">
+        <v>180</v>
+      </c>
+      <c r="F67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>318</v>
+      </c>
+      <c r="B68">
+        <v>8439</v>
+      </c>
+      <c r="C68">
+        <v>-48.3</v>
+      </c>
+      <c r="D68">
+        <v>-52.9</v>
+      </c>
+      <c r="E68">
+        <v>177</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>314</v>
+      </c>
+      <c r="B69">
+        <v>8522</v>
+      </c>
+      <c r="C69">
+        <v>-49.1</v>
+      </c>
+      <c r="D69">
+        <v>-52.8</v>
+      </c>
+      <c r="E69">
+        <v>176</v>
+      </c>
+      <c r="F69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>312</v>
+      </c>
+      <c r="B70">
+        <v>8564</v>
+      </c>
+      <c r="C70">
+        <v>-49.4</v>
+      </c>
+      <c r="D70">
+        <v>-53.4</v>
+      </c>
+      <c r="E70">
+        <v>175</v>
+      </c>
+      <c r="F70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>306</v>
+      </c>
+      <c r="B71">
+        <v>8691</v>
+      </c>
+      <c r="C71">
+        <v>-50.3</v>
+      </c>
+      <c r="D71">
+        <v>-55.3</v>
+      </c>
+      <c r="E71">
+        <v>180</v>
+      </c>
+      <c r="F71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>304</v>
+      </c>
+      <c r="B72">
+        <v>8734</v>
+      </c>
+      <c r="C72">
+        <v>-50.3</v>
+      </c>
+      <c r="D72">
+        <v>-56.3</v>
+      </c>
+      <c r="E72">
+        <v>182</v>
+      </c>
+      <c r="F72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>300</v>
+      </c>
+      <c r="B73">
+        <v>8820</v>
+      </c>
+      <c r="C73">
+        <v>-50.7</v>
+      </c>
+      <c r="D73">
+        <v>-55.5</v>
+      </c>
+      <c r="E73">
+        <v>185</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>298</v>
+      </c>
+      <c r="B74">
+        <v>8863</v>
+      </c>
+      <c r="C74">
+        <v>-51.1</v>
+      </c>
+      <c r="D74">
+        <v>-55.1</v>
+      </c>
+      <c r="E74">
+        <v>185</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>296</v>
+      </c>
+      <c r="B75">
+        <v>8907</v>
+      </c>
+      <c r="C75">
+        <v>-51.5</v>
+      </c>
+      <c r="D75">
+        <v>-54.7</v>
+      </c>
+      <c r="E75">
+        <v>178</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>295</v>
+      </c>
+      <c r="B76">
+        <v>8929</v>
+      </c>
+      <c r="C76">
+        <v>-51.7</v>
+      </c>
+      <c r="D76">
+        <v>-55.3</v>
+      </c>
+      <c r="E76">
+        <v>175</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>293</v>
+      </c>
+      <c r="B77">
+        <v>8973</v>
+      </c>
+      <c r="C77">
+        <v>-52.1</v>
+      </c>
+      <c r="D77">
+        <v>-56.5</v>
+      </c>
+      <c r="E77">
+        <v>168</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>286</v>
+      </c>
+      <c r="B78">
+        <v>9128</v>
+      </c>
+      <c r="C78">
+        <v>-53</v>
+      </c>
+      <c r="D78">
+        <v>-55.8</v>
+      </c>
+      <c r="E78">
+        <v>145</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>280</v>
+      </c>
+      <c r="B79">
+        <v>9264</v>
+      </c>
+      <c r="C79">
+        <v>-53.7</v>
+      </c>
+      <c r="D79">
+        <v>-55.2</v>
+      </c>
+      <c r="E79">
+        <v>149</v>
+      </c>
+      <c r="F79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>279</v>
+      </c>
+      <c r="B80">
+        <v>9287</v>
+      </c>
+      <c r="C80">
+        <v>-53.9</v>
+      </c>
+      <c r="D80">
+        <v>-55.8</v>
+      </c>
+      <c r="E80">
+        <v>150</v>
+      </c>
+      <c r="F80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>278</v>
+      </c>
+      <c r="B81">
+        <v>9310</v>
+      </c>
+      <c r="C81">
+        <v>-54.1</v>
+      </c>
+      <c r="D81">
+        <v>-56.3</v>
+      </c>
+      <c r="E81">
+        <v>150</v>
+      </c>
+      <c r="F81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>274</v>
+      </c>
+      <c r="B82">
+        <v>9403</v>
+      </c>
+      <c r="C82">
+        <v>-52.9</v>
+      </c>
+      <c r="D82">
+        <v>-60.9</v>
+      </c>
+      <c r="E82">
+        <v>158</v>
+      </c>
+      <c r="F82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>273</v>
+      </c>
+      <c r="B83">
+        <v>9427</v>
+      </c>
+      <c r="C83">
+        <v>-52.8</v>
+      </c>
+      <c r="D83">
+        <v>-61.4</v>
+      </c>
+      <c r="E83">
+        <v>160</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>266</v>
+      </c>
+      <c r="B84">
+        <v>9594</v>
+      </c>
+      <c r="C84">
+        <v>-51.8</v>
+      </c>
+      <c r="D84">
+        <v>-65.2</v>
+      </c>
+      <c r="E84">
+        <v>150</v>
+      </c>
+      <c r="F84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>265</v>
+      </c>
+      <c r="B85">
+        <v>9618</v>
+      </c>
+      <c r="C85">
+        <v>-51.7</v>
+      </c>
+      <c r="D85">
+        <v>-65.7</v>
+      </c>
+      <c r="E85">
+        <v>156</v>
+      </c>
+      <c r="F85">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>260</v>
+      </c>
+      <c r="B86">
+        <v>9743</v>
+      </c>
+      <c r="C86">
+        <v>-47.5</v>
+      </c>
+      <c r="D86">
+        <v>-74.5</v>
+      </c>
+      <c r="E86">
+        <v>185</v>
+      </c>
+      <c r="F86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>250</v>
+      </c>
+      <c r="B87">
+        <v>10000</v>
+      </c>
+      <c r="C87">
+        <v>-49.1</v>
+      </c>
+      <c r="D87">
+        <v>-73.099999999999994</v>
+      </c>
+      <c r="E87">
+        <v>155</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>248</v>
+      </c>
+      <c r="B88">
+        <v>10053</v>
+      </c>
+      <c r="C88">
+        <v>-49.4</v>
+      </c>
+      <c r="D88">
+        <v>-74</v>
+      </c>
+      <c r="E88">
+        <v>140</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>247</v>
+      </c>
+      <c r="B89">
+        <v>10079</v>
+      </c>
+      <c r="C89">
+        <v>-49.5</v>
+      </c>
+      <c r="D89">
+        <v>-74.5</v>
+      </c>
+      <c r="E89">
+        <v>144</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>239</v>
+      </c>
+      <c r="B90">
+        <v>10297</v>
+      </c>
+      <c r="C90">
+        <v>-47.1</v>
+      </c>
+      <c r="D90">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="E90">
+        <v>175</v>
+      </c>
+      <c r="F90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>231</v>
+      </c>
+      <c r="B91">
+        <v>10523</v>
+      </c>
+      <c r="C91">
+        <v>-44.7</v>
+      </c>
+      <c r="D91">
+        <v>-75.7</v>
+      </c>
+      <c r="E91">
+        <v>180</v>
+      </c>
+      <c r="F91">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>221</v>
+      </c>
+      <c r="B92">
+        <v>10820</v>
+      </c>
+      <c r="C92">
+        <v>-43.8</v>
+      </c>
+      <c r="D92">
+        <v>-76.3</v>
+      </c>
+      <c r="E92">
+        <v>190</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>218</v>
+      </c>
+      <c r="B93">
+        <v>10912</v>
+      </c>
+      <c r="C93">
+        <v>-43.5</v>
+      </c>
+      <c r="D93">
+        <v>-76.5</v>
+      </c>
+      <c r="E93">
+        <v>202</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>215</v>
+      </c>
+      <c r="B94">
+        <v>11005</v>
+      </c>
+      <c r="C94">
+        <v>-43.8</v>
+      </c>
+      <c r="D94">
+        <v>-76.8</v>
+      </c>
+      <c r="E94">
+        <v>215</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>208</v>
+      </c>
+      <c r="B95">
+        <v>11227</v>
+      </c>
+      <c r="C95">
+        <v>-44.7</v>
+      </c>
+      <c r="D95">
+        <v>-77.7</v>
+      </c>
+      <c r="E95">
+        <v>205</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>206</v>
+      </c>
+      <c r="B96">
+        <v>11292</v>
+      </c>
+      <c r="C96">
+        <v>-44.9</v>
+      </c>
+      <c r="D96">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="E96">
+        <v>198</v>
+      </c>
+      <c r="F96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>205</v>
+      </c>
+      <c r="B97">
+        <v>11325</v>
+      </c>
+      <c r="C97">
+        <v>-44.9</v>
+      </c>
+      <c r="D97">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="E97">
+        <v>195</v>
+      </c>
+      <c r="F97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>200</v>
+      </c>
+      <c r="B98">
+        <v>11490</v>
+      </c>
+      <c r="C98">
+        <v>-44.7</v>
+      </c>
+      <c r="D98">
+        <v>-77.7</v>
+      </c>
+      <c r="E98">
+        <v>200</v>
+      </c>
+      <c r="F98">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>188</v>
+      </c>
+      <c r="B99">
+        <v>11905</v>
+      </c>
+      <c r="C99">
+        <v>-44.1</v>
+      </c>
+      <c r="D99">
+        <v>-78.099999999999994</v>
+      </c>
+      <c r="E99">
+        <v>208</v>
+      </c>
+      <c r="F99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>185</v>
+      </c>
+      <c r="B100">
+        <v>12013</v>
+      </c>
+      <c r="C100">
+        <v>-44.1</v>
+      </c>
+      <c r="D100">
+        <v>-78.2</v>
+      </c>
+      <c r="E100">
+        <v>210</v>
+      </c>
+      <c r="F100">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>163</v>
+      </c>
+      <c r="B101">
+        <v>12862</v>
+      </c>
+      <c r="C101">
+        <v>-44.5</v>
+      </c>
+      <c r="D101">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="E101">
+        <v>195</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>150</v>
+      </c>
+      <c r="B102">
+        <v>13420</v>
+      </c>
+      <c r="C102">
+        <v>-44.7</v>
+      </c>
+      <c r="D102">
+        <v>-79.7</v>
+      </c>
+      <c r="E102">
+        <v>210</v>
+      </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>137</v>
+      </c>
+      <c r="B103">
+        <v>14023</v>
+      </c>
+      <c r="C103">
+        <v>-45.7</v>
+      </c>
+      <c r="D103">
+        <v>-79.900000000000006</v>
+      </c>
+      <c r="E103">
+        <v>225</v>
+      </c>
+      <c r="F103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>135</v>
+      </c>
+      <c r="B104">
+        <v>14121</v>
+      </c>
+      <c r="C104">
+        <v>-45.9</v>
+      </c>
+      <c r="D104">
+        <v>-79.900000000000006</v>
+      </c>
+      <c r="E104">
+        <v>221</v>
+      </c>
+      <c r="F104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>132</v>
+      </c>
+      <c r="B105">
+        <v>14271</v>
+      </c>
+      <c r="C105">
+        <v>-45.8</v>
+      </c>
+      <c r="D105">
+        <v>-79.900000000000006</v>
+      </c>
+      <c r="E105">
+        <v>215</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>127</v>
+      </c>
+      <c r="B106">
+        <v>14528</v>
+      </c>
+      <c r="C106">
+        <v>-45.5</v>
+      </c>
+      <c r="D106">
+        <v>-79.8</v>
+      </c>
+      <c r="E106">
+        <v>200</v>
+      </c>
+      <c r="F106">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>120</v>
+      </c>
+      <c r="B107">
+        <v>14906</v>
+      </c>
+      <c r="C107">
+        <v>-45.2</v>
+      </c>
+      <c r="D107">
+        <v>-79.7</v>
+      </c>
+      <c r="E107">
+        <v>205</v>
+      </c>
+      <c r="F107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>15425</v>
+      </c>
+      <c r="C108">
+        <v>-44.7</v>
+      </c>
+      <c r="D108">
+        <v>-79.599999999999994</v>
+      </c>
+      <c r="E108">
+        <v>200</v>
+      </c>
+      <c r="F108">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>15669</v>
+      </c>
+      <c r="C109">
+        <v>-44.5</v>
+      </c>
+      <c r="D109">
+        <v>-79.5</v>
+      </c>
+      <c r="E109">
+        <v>220</v>
+      </c>
+      <c r="F109">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <v>15859</v>
+      </c>
+      <c r="C110">
+        <v>-44.9</v>
+      </c>
+      <c r="D110">
+        <v>-79.900000000000006</v>
+      </c>
+      <c r="E110">
+        <v>195</v>
+      </c>
+      <c r="F110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>100</v>
+      </c>
+      <c r="B111">
+        <v>16120</v>
+      </c>
+      <c r="C111">
+        <v>-45.5</v>
+      </c>
+      <c r="D111">
+        <v>-80.5</v>
+      </c>
+      <c r="E111">
+        <v>210</v>
+      </c>
+      <c r="F111">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>98.9</v>
+      </c>
+      <c r="B112">
+        <v>16194</v>
+      </c>
+      <c r="C112">
+        <v>-45.1</v>
+      </c>
+      <c r="D112">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="E112">
+        <v>211</v>
+      </c>
+      <c r="F112">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>94.7</v>
+      </c>
+      <c r="B113">
+        <v>16483</v>
+      </c>
+      <c r="C113">
+        <v>-46.7</v>
+      </c>
+      <c r="D113">
+        <v>-80.7</v>
+      </c>
+      <c r="E113">
+        <v>216</v>
+      </c>
+      <c r="F113">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>84.2</v>
+      </c>
+      <c r="B114">
+        <v>17265</v>
+      </c>
+      <c r="C114">
+        <v>-45.7</v>
+      </c>
+      <c r="D114">
+        <v>-80.7</v>
+      </c>
+      <c r="E114">
+        <v>228</v>
+      </c>
+      <c r="F114">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>83</v>
+      </c>
+      <c r="B115">
+        <v>17360</v>
+      </c>
+      <c r="C115">
+        <v>-46.4</v>
+      </c>
+      <c r="D115">
+        <v>-81</v>
+      </c>
+      <c r="E115">
+        <v>230</v>
+      </c>
+      <c r="F115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>81.3</v>
+      </c>
+      <c r="B116">
+        <v>17498</v>
+      </c>
+      <c r="C116">
+        <v>-47.3</v>
+      </c>
+      <c r="D116">
+        <v>-81.3</v>
+      </c>
+      <c r="E116">
+        <v>222</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="B117">
+        <v>17654</v>
+      </c>
+      <c r="C117">
+        <v>-47.3</v>
+      </c>
+      <c r="D117">
+        <v>-81.3</v>
+      </c>
+      <c r="E117">
+        <v>212</v>
+      </c>
+      <c r="F117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>76</v>
+      </c>
+      <c r="B118">
+        <v>17944</v>
+      </c>
+      <c r="C118">
+        <v>-47.3</v>
+      </c>
+      <c r="D118">
+        <v>-81.3</v>
+      </c>
+      <c r="E118">
+        <v>195</v>
+      </c>
+      <c r="F118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="B119">
+        <v>18111</v>
+      </c>
+      <c r="C119">
+        <v>-47.3</v>
+      </c>
+      <c r="D119">
+        <v>-81.3</v>
+      </c>
+      <c r="E119">
+        <v>201</v>
+      </c>
+      <c r="F119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>73</v>
+      </c>
+      <c r="B120">
+        <v>18211</v>
+      </c>
+      <c r="C120">
+        <v>-46.7</v>
+      </c>
+      <c r="D120">
+        <v>-81</v>
+      </c>
+      <c r="E120">
+        <v>205</v>
+      </c>
+      <c r="F120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>71</v>
+      </c>
+      <c r="B121">
+        <v>18395</v>
+      </c>
+      <c r="C121">
+        <v>-45.5</v>
+      </c>
+      <c r="D121">
+        <v>-80.5</v>
+      </c>
+      <c r="E121">
+        <v>198</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>70</v>
+      </c>
+      <c r="B122">
+        <v>18490</v>
+      </c>
+      <c r="C122">
+        <v>-45.7</v>
+      </c>
+      <c r="D122">
+        <v>-80.7</v>
+      </c>
+      <c r="E122">
+        <v>195</v>
+      </c>
+      <c r="F122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>67</v>
+      </c>
+      <c r="B123">
+        <v>18781</v>
+      </c>
+      <c r="C123">
+        <v>-46.8</v>
+      </c>
+      <c r="D123">
+        <v>-81.2</v>
+      </c>
+      <c r="E123">
+        <v>185</v>
+      </c>
+      <c r="F123">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>65.3</v>
+      </c>
+      <c r="B124">
+        <v>18951</v>
+      </c>
+      <c r="C124">
+        <v>-47.5</v>
+      </c>
+      <c r="D124">
+        <v>-81.5</v>
+      </c>
+      <c r="E124">
+        <v>205</v>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>64</v>
+      </c>
+      <c r="B125">
+        <v>19084</v>
+      </c>
+      <c r="C125">
+        <v>-47.1</v>
+      </c>
+      <c r="D125">
+        <v>-81.400000000000006</v>
+      </c>
+      <c r="E125">
+        <v>220</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>61.6</v>
+      </c>
+      <c r="B126">
+        <v>19338</v>
+      </c>
+      <c r="C126">
+        <v>-46.3</v>
+      </c>
+      <c r="D126">
+        <v>-81.3</v>
+      </c>
+      <c r="E126">
+        <v>222</v>
+      </c>
+      <c r="F126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>57</v>
+      </c>
+      <c r="B127">
+        <v>19852</v>
+      </c>
+      <c r="C127">
+        <v>-46.8</v>
+      </c>
+      <c r="D127">
+        <v>-81.8</v>
+      </c>
+      <c r="E127">
+        <v>225</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>56</v>
+      </c>
+      <c r="B128">
+        <v>19969</v>
+      </c>
+      <c r="C128">
+        <v>-46.9</v>
+      </c>
+      <c r="D128">
+        <v>-81.8</v>
+      </c>
+      <c r="E128">
+        <v>205</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>54</v>
+      </c>
+      <c r="B129">
+        <v>20210</v>
+      </c>
+      <c r="C129">
+        <v>-47.1</v>
+      </c>
+      <c r="D129">
+        <v>-82.1</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>52</v>
+      </c>
+      <c r="B130">
+        <v>20460</v>
+      </c>
+      <c r="C130">
+        <v>-47.3</v>
+      </c>
+      <c r="D130">
+        <v>-82.3</v>
+      </c>
+      <c r="E130">
+        <v>230</v>
+      </c>
+      <c r="F130">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>50</v>
+      </c>
+      <c r="B131">
+        <v>20720</v>
+      </c>
+      <c r="C131">
+        <v>-47.5</v>
+      </c>
+      <c r="D131">
+        <v>-82.5</v>
+      </c>
+      <c r="E131">
+        <v>245</v>
+      </c>
+      <c r="F131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>47</v>
+      </c>
+      <c r="B132">
+        <v>21128</v>
+      </c>
+      <c r="C132">
+        <v>-48</v>
+      </c>
+      <c r="D132">
+        <v>-82.5</v>
+      </c>
+      <c r="E132">
+        <v>235</v>
+      </c>
+      <c r="F132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>46</v>
+      </c>
+      <c r="B133">
+        <v>21270</v>
+      </c>
+      <c r="C133">
+        <v>-48.1</v>
+      </c>
+      <c r="D133">
+        <v>-82.5</v>
+      </c>
+      <c r="E133">
+        <v>260</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <v>21415</v>
+      </c>
+      <c r="C134">
+        <v>-48.3</v>
+      </c>
+      <c r="D134">
+        <v>-82.5</v>
+      </c>
+      <c r="E134">
+        <v>240</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>44</v>
+      </c>
+      <c r="B135">
+        <v>21563</v>
+      </c>
+      <c r="C135">
+        <v>-48.4</v>
+      </c>
+      <c r="D135">
+        <v>-82.5</v>
+      </c>
+      <c r="E135">
+        <v>195</v>
+      </c>
+      <c r="F135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>43.6</v>
+      </c>
+      <c r="B136">
+        <v>21623</v>
+      </c>
+      <c r="C136">
+        <v>-48.5</v>
+      </c>
+      <c r="D136">
+        <v>-82.5</v>
+      </c>
+      <c r="E136">
+        <v>193</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>43</v>
+      </c>
+      <c r="B137">
+        <v>21714</v>
+      </c>
+      <c r="C137">
+        <v>-48.3</v>
+      </c>
+      <c r="D137">
+        <v>-82.5</v>
+      </c>
+      <c r="E137">
+        <v>190</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>42</v>
+      </c>
+      <c r="B138">
+        <v>21870</v>
+      </c>
+      <c r="C138">
+        <v>-47.9</v>
+      </c>
+      <c r="D138">
+        <v>-82.4</v>
+      </c>
+      <c r="E138">
+        <v>210</v>
+      </c>
+      <c r="F138">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>41</v>
+      </c>
+      <c r="B139">
+        <v>22029</v>
+      </c>
+      <c r="C139">
+        <v>-47.5</v>
+      </c>
+      <c r="D139">
+        <v>-82.3</v>
+      </c>
+      <c r="E139">
+        <v>200</v>
+      </c>
+      <c r="F139">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>40.5</v>
+      </c>
+      <c r="B140">
+        <v>22109</v>
+      </c>
+      <c r="C140">
+        <v>-47.3</v>
+      </c>
+      <c r="D140">
+        <v>-82.3</v>
+      </c>
+      <c r="E140">
+        <v>205</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>39</v>
+      </c>
+      <c r="B141">
+        <v>22358</v>
+      </c>
+      <c r="C141">
+        <v>-47.8</v>
+      </c>
+      <c r="D141">
+        <v>-82.6</v>
+      </c>
+      <c r="E141">
+        <v>220</v>
+      </c>
+      <c r="F141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142">
+        <v>38</v>
+      </c>
+      <c r="B142">
+        <v>22529</v>
+      </c>
+      <c r="C142">
+        <v>-48.2</v>
+      </c>
+      <c r="D142">
+        <v>-82.8</v>
+      </c>
+      <c r="E142">
+        <v>210</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143">
+        <v>37</v>
+      </c>
+      <c r="B143">
+        <v>22704</v>
+      </c>
+      <c r="C143">
+        <v>-48.5</v>
+      </c>
+      <c r="D143">
+        <v>-83</v>
+      </c>
+      <c r="E143">
+        <v>220</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144">
+        <v>35</v>
+      </c>
+      <c r="B144">
+        <v>23070</v>
+      </c>
+      <c r="C144">
+        <v>-49.3</v>
+      </c>
+      <c r="D144">
+        <v>-83.5</v>
+      </c>
+      <c r="E144">
+        <v>180</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145">
+        <v>34</v>
+      </c>
+      <c r="B145">
+        <v>23260</v>
+      </c>
+      <c r="C145">
+        <v>-49.7</v>
+      </c>
+      <c r="D145">
+        <v>-83.7</v>
+      </c>
+      <c r="E145">
+        <v>197</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146">
+        <v>33</v>
+      </c>
+      <c r="B146">
+        <v>23456</v>
+      </c>
+      <c r="C146">
+        <v>-49.5</v>
+      </c>
+      <c r="D146">
+        <v>-83.5</v>
+      </c>
+      <c r="E146">
+        <v>215</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147">
+        <v>31.2</v>
+      </c>
+      <c r="B147">
+        <v>23823</v>
+      </c>
+      <c r="C147">
+        <v>-49.1</v>
+      </c>
+      <c r="D147">
+        <v>-83.1</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148">
+        <v>31</v>
+      </c>
+      <c r="B148">
+        <v>23865</v>
+      </c>
+      <c r="C148">
+        <v>-49.3</v>
+      </c>
+      <c r="D148">
+        <v>-83.1</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149">
+        <v>24080</v>
+      </c>
+      <c r="C149">
+        <v>-50.3</v>
+      </c>
+      <c r="D149">
+        <v>-83.3</v>
+      </c>
+      <c r="E149">
+        <v>105</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150">
+        <v>29</v>
+      </c>
+      <c r="B150">
+        <v>24300</v>
+      </c>
+      <c r="C150">
+        <v>-51.5</v>
+      </c>
+      <c r="D150">
+        <v>-84.5</v>
+      </c>
+      <c r="E150">
+        <v>145</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151">
+        <v>28.8</v>
+      </c>
+      <c r="B151">
+        <v>24345</v>
+      </c>
+      <c r="C151">
+        <v>-51.7</v>
+      </c>
+      <c r="D151">
+        <v>-84.7</v>
+      </c>
+      <c r="E151">
+        <v>145</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152">
+        <v>28</v>
+      </c>
+      <c r="B152">
+        <v>24528</v>
+      </c>
+      <c r="C152">
+        <v>-51</v>
+      </c>
+      <c r="D152">
+        <v>-84.3</v>
+      </c>
+      <c r="E152">
+        <v>145</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153">
+        <v>27</v>
+      </c>
+      <c r="B153">
+        <v>24764</v>
+      </c>
+      <c r="C153">
+        <v>-50</v>
+      </c>
+      <c r="D153">
+        <v>-83.7</v>
+      </c>
+      <c r="E153">
+        <v>180</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154">
+        <v>26.3</v>
+      </c>
+      <c r="B154">
+        <v>24935</v>
+      </c>
+      <c r="C154">
+        <v>-49.3</v>
+      </c>
+      <c r="D154">
+        <v>-83.3</v>
+      </c>
+      <c r="E154">
+        <v>211</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155">
+        <v>26</v>
+      </c>
+      <c r="B155">
+        <v>25010</v>
+      </c>
+      <c r="C155">
+        <v>-49.6</v>
+      </c>
+      <c r="D155">
+        <v>-83.6</v>
+      </c>
+      <c r="E155">
+        <v>225</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156">
+        <v>25.5</v>
+      </c>
+      <c r="B156">
+        <v>25136</v>
+      </c>
+      <c r="C156">
+        <v>-50.1</v>
+      </c>
+      <c r="D156">
+        <v>-84.1</v>
+      </c>
+      <c r="E156">
+        <v>258</v>
+      </c>
+      <c r="F156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157">
+        <v>24</v>
+      </c>
+      <c r="B157">
+        <v>25533</v>
+      </c>
+      <c r="C157">
+        <v>-49</v>
+      </c>
+      <c r="D157">
+        <v>-83.4</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158">
+        <v>22</v>
+      </c>
+      <c r="B158">
+        <v>26103</v>
+      </c>
+      <c r="C158">
+        <v>-47.5</v>
+      </c>
+      <c r="D158">
+        <v>-82.5</v>
+      </c>
+      <c r="E158">
+        <v>68</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159">
+        <v>21</v>
+      </c>
+      <c r="B159">
+        <v>26409</v>
+      </c>
+      <c r="C159">
+        <v>-47.8</v>
+      </c>
+      <c r="D159">
+        <v>-82.8</v>
+      </c>
+      <c r="E159">
+        <v>105</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160">
+        <v>20</v>
+      </c>
+      <c r="B160">
+        <v>26730</v>
+      </c>
+      <c r="C160">
+        <v>-48.1</v>
+      </c>
+      <c r="D160">
+        <v>-83.1</v>
+      </c>
+      <c r="E160">
+        <v>100</v>
+      </c>
+      <c r="F160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161">
+        <v>16.3</v>
+      </c>
+      <c r="B161">
+        <v>28074</v>
+      </c>
+      <c r="C161">
+        <v>-49.1</v>
+      </c>
+      <c r="D161">
+        <v>-83.1</v>
+      </c>
+      <c r="E161">
+        <v>114</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162">
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <v>28197</v>
+      </c>
+      <c r="C162">
+        <v>-48.5</v>
+      </c>
+      <c r="D162">
+        <v>-83.2</v>
+      </c>
+      <c r="E162">
+        <v>115</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163">
+        <v>15.4</v>
+      </c>
+      <c r="B163">
+        <v>28448</v>
+      </c>
+      <c r="C163">
+        <v>-47.3</v>
+      </c>
+      <c r="D163">
+        <v>-83.3</v>
+      </c>
+      <c r="E163">
+        <v>110</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164">
+        <v>12.9</v>
+      </c>
+      <c r="B164">
+        <v>29616</v>
+      </c>
+      <c r="C164">
+        <v>-48.5</v>
+      </c>
+      <c r="D164">
+        <v>-83.5</v>
+      </c>
+      <c r="E164">
+        <v>85</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165">
+        <v>12.1</v>
+      </c>
+      <c r="B165">
+        <v>30039</v>
+      </c>
+      <c r="C165">
+        <v>-46.3</v>
+      </c>
+      <c r="D165">
+        <v>-82.3</v>
+      </c>
+      <c r="E165">
+        <v>76</v>
+      </c>
+      <c r="F165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>30095</v>
+      </c>
+      <c r="C166">
+        <v>-46.2</v>
+      </c>
+      <c r="D166">
+        <v>-82.3</v>
+      </c>
+      <c r="E166">
+        <v>75</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167">
+        <v>11</v>
+      </c>
+      <c r="B167">
+        <v>30675</v>
+      </c>
+      <c r="C167">
+        <v>-45.4</v>
+      </c>
+      <c r="D167">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="E167">
+        <v>115</v>
+      </c>
+      <c r="F167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168">
+        <v>31310</v>
+      </c>
+      <c r="C168">
+        <v>-44.5</v>
+      </c>
+      <c r="D168">
+        <v>-81.5</v>
+      </c>
+      <c r="E168">
+        <v>170</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169">
+        <v>9.4</v>
+      </c>
+      <c r="B169">
+        <v>31725</v>
+      </c>
+      <c r="C169">
+        <v>-43.9</v>
+      </c>
+      <c r="D169">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="E169">
+        <v>73</v>
+      </c>
+      <c r="F169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>32018</v>
+      </c>
+      <c r="C170">
+        <v>-43.9</v>
+      </c>
+      <c r="D170">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B171">
+        <v>32169</v>
+      </c>
+      <c r="C171">
+        <v>-43.9</v>
+      </c>
+      <c r="D171">
+        <v>-81.900000000000006</v>
+      </c>
+      <c r="E171">
+        <v>15</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172">
+        <v>32807</v>
+      </c>
+      <c r="C172">
+        <v>-44.8</v>
+      </c>
+      <c r="D172">
+        <v>-82</v>
+      </c>
+      <c r="E172">
+        <v>60</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>33700</v>
+      </c>
+      <c r="C173">
+        <v>-46.1</v>
+      </c>
+      <c r="D173">
+        <v>-82.1</v>
+      </c>
+      <c r="E173">
+        <v>125</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174">
+        <v>6.9</v>
+      </c>
+      <c r="B174">
+        <v>33796</v>
+      </c>
+      <c r="C174">
+        <v>-46.3</v>
+      </c>
+      <c r="D174">
+        <v>-82.3</v>
+      </c>
+      <c r="E174">
+        <v>112</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175">
+        <v>6.6</v>
+      </c>
+      <c r="B175">
+        <v>34091</v>
+      </c>
+      <c r="C175">
+        <v>-45.9</v>
+      </c>
+      <c r="D175">
+        <v>-82.9</v>
+      </c>
+      <c r="E175">
+        <v>72</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176">
+        <v>6.2</v>
+      </c>
+      <c r="B176">
+        <v>34512</v>
+      </c>
+      <c r="C176">
+        <v>-41.1</v>
+      </c>
+      <c r="D176">
+        <v>-81.099999999999994</v>
+      </c>
+      <c r="E176">
+        <v>15</v>
+      </c>
+      <c r="F176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177">
+        <v>6.1</v>
+      </c>
+      <c r="B177">
+        <v>34623</v>
+      </c>
+      <c r="C177">
+        <v>-40.5</v>
+      </c>
+      <c r="D177">
+        <v>-80.5</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>34735</v>
+      </c>
+      <c r="C178">
+        <v>-40.9</v>
+      </c>
+      <c r="D178">
+        <v>-80.599999999999994</v>
+      </c>
+      <c r="E178">
+        <v>345</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179">
+        <v>5.8</v>
+      </c>
+      <c r="B179">
+        <v>34966</v>
+      </c>
+      <c r="C179">
+        <v>-41.7</v>
+      </c>
+      <c r="D179">
+        <v>-80.7</v>
+      </c>
+      <c r="E179">
+        <v>354</v>
+      </c>
+      <c r="F179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <v>35980</v>
+      </c>
+      <c r="C180">
+        <v>-38.1</v>
+      </c>
+      <c r="D180">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="E180">
+        <v>35</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181">
+        <v>4.8</v>
+      </c>
+      <c r="B181">
+        <v>36261</v>
+      </c>
+      <c r="C181">
+        <v>-37.9</v>
+      </c>
+      <c r="D181">
+        <v>-79.900000000000006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182">
+        <v>4.7</v>
+      </c>
+      <c r="B182">
+        <v>36407</v>
+      </c>
+      <c r="C182">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="D182">
+        <v>-78.7</v>
       </c>
     </row>
   </sheetData>
